--- a/frontend_business/public/business_revenues.xlsx
+++ b/frontend_business/public/business_revenues.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF03B6C2-C35E-42A0-B419-3A4CD010B304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D00A12-A640-472B-B293-C0127724E506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>revenue_name</t>
   </si>
@@ -28,17 +39,59 @@
     <t>revenue_description</t>
   </si>
   <si>
-    <t>revenue_date</t>
+    <t xml:space="preserve">revenue_date </t>
   </si>
   <si>
     <t>revenue_amount</t>
+  </si>
+  <si>
+    <t>Bán hàng tháng 1</t>
+  </si>
+  <si>
+    <t>Doanh thu từ bán sản phẩm</t>
+  </si>
+  <si>
+    <t>2024-01-15</t>
+  </si>
+  <si>
+    <t>Bán hàng tháng 2</t>
+  </si>
+  <si>
+    <t>Doanh thu từ dịch vụ</t>
+  </si>
+  <si>
+    <t>2024-01-20</t>
+  </si>
+  <si>
+    <t>Bán hàng tháng 3</t>
+  </si>
+  <si>
+    <t>Doanh thu từ hợp đồng</t>
+  </si>
+  <si>
+    <t>2024-01-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lưu ý: Đây là mẫu excel đã được chuẩn 
+hoá theo hệ thống vui lòng không
+chỉnh sửa lại gì </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
+  <fonts count="3">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,7 +104,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -90,12 +143,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -114,9 +184,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -154,7 +224,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -188,7 +258,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -223,10 +292,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -400,347 +468,675 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:P100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+    <row r="2" spans="1:16">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="M7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="3"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="3"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="3"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="3"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="3"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="3"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="3"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="3"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="3"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="3"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="3"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="3"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="3"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="3"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="3"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="3"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="M7:P10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>